--- a/data/trans_dic/P1404-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1373464117309381</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1451661881556195</v>
+        <v>0.1451661881556194</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.07461221456143817</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03010809354108702</v>
+        <v>0.03111863127402866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06663999072120153</v>
+        <v>0.06638527572563474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08910013694270344</v>
+        <v>0.09465123001711954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09387811850874671</v>
+        <v>0.0961543109784454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06792895535206703</v>
+        <v>0.06549134389073918</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08567197990621375</v>
+        <v>0.08701990522567606</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09932663315246786</v>
+        <v>0.0991716664795223</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1178010713317487</v>
+        <v>0.1197874113707068</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05354490691921143</v>
+        <v>0.05401416769033422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08506084591844544</v>
+        <v>0.08352189020708801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1063747416794742</v>
+        <v>0.100493290711016</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1132639929576395</v>
+        <v>0.1160547124794151</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08060887714360716</v>
+        <v>0.08165831315155805</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1398862732732281</v>
+        <v>0.1445203195703887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1737993827912494</v>
+        <v>0.1758785666708312</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1589716089538267</v>
+        <v>0.1579784103455587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1431969750133645</v>
+        <v>0.1380500603577771</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.17383040955454</v>
+        <v>0.1730598768481714</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1833994405034586</v>
+        <v>0.1854217248193168</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.175294470994838</v>
+        <v>0.1757065349337549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09870063363680798</v>
+        <v>0.09871642298330084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1441532268951869</v>
+        <v>0.1400687625824781</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.163882952588419</v>
+        <v>0.1608572115927585</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1570930844425645</v>
+        <v>0.1587278034234365</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05593631960092482</v>
+        <v>0.05635768684481007</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1020431538309577</v>
+        <v>0.1005736947787265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08892867139162426</v>
+        <v>0.08925635713521436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09254374792931688</v>
+        <v>0.0902876970914212</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08045347730090342</v>
+        <v>0.07807145070632854</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1244439212814057</v>
+        <v>0.1265045291978676</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1135025317101366</v>
+        <v>0.1124059686419464</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1107412516091793</v>
+        <v>0.109140400131411</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07301183597923798</v>
+        <v>0.07188565736929133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1218885211628381</v>
+        <v>0.1224815687762545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.109280139841223</v>
+        <v>0.1079029484590653</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1074621286011105</v>
+        <v>0.1073491018026567</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1047470209705058</v>
+        <v>0.1028946100675883</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.167026011894447</v>
+        <v>0.1719481142593501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.146759228645684</v>
+        <v>0.1450958614833622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1507563274335042</v>
+        <v>0.1515015617102829</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1331963230778411</v>
+        <v>0.1316067054014687</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1922153705499243</v>
+        <v>0.1943045525377086</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1741361835522294</v>
+        <v>0.1734410000074361</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.158130151332706</v>
+        <v>0.1544284903014573</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1075329862369611</v>
+        <v>0.1067784284002175</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1705667380680162</v>
+        <v>0.1699448102616944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1510377722704228</v>
+        <v>0.1508219877069589</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1446878822285229</v>
+        <v>0.1438776906998392</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1290351441939455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1466159144329058</v>
+        <v>0.1466159144329059</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08300246766282031</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05521487100769571</v>
+        <v>0.05447558659814072</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07602048852373072</v>
+        <v>0.07472638753299544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0934027076576375</v>
+        <v>0.09804459139556229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1126976823661306</v>
+        <v>0.1140629300222302</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05738076666897874</v>
+        <v>0.05498832182936039</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09584174021408781</v>
+        <v>0.09560603469334673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1148286564360688</v>
+        <v>0.1103847279799417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1385732419588588</v>
+        <v>0.136862077709812</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06231297431167062</v>
+        <v>0.06121329590249346</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09475651312249761</v>
+        <v>0.09526207047313981</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1143980512440036</v>
+        <v>0.1149272823175229</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1384273408394314</v>
+        <v>0.1381422290885453</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1145051300155391</v>
+        <v>0.1127958247039935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1456683664905414</v>
+        <v>0.1468674861406017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1682360736556848</v>
+        <v>0.1722656461012737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1821788345564267</v>
+        <v>0.1869143009494542</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1190985807405609</v>
+        <v>0.1149173419518921</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1747613794587899</v>
+        <v>0.1699393389064124</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1995396274378224</v>
+        <v>0.1988666310088632</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.199587871352172</v>
+        <v>0.1965517564994482</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1062127500646636</v>
+        <v>0.1020206727357434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1453173815232957</v>
+        <v>0.1486868960373239</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1655098486348663</v>
+        <v>0.1704465458256901</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.182353664797911</v>
+        <v>0.1806778969904105</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04230312662347824</v>
+        <v>0.04243932141558283</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08554816605550558</v>
+        <v>0.08787788441767051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09514610332593017</v>
+        <v>0.09505917151156568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1213089625088057</v>
+        <v>0.1157509087999525</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0405101338102892</v>
+        <v>0.03951208153510519</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1261126832660681</v>
+        <v>0.1254176382073538</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1073216399320704</v>
+        <v>0.1115274383603364</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1372336517247403</v>
+        <v>0.1330691729415633</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04633484323618621</v>
+        <v>0.0473732844300311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.113950438712785</v>
+        <v>0.1176951000883097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1133368386255488</v>
+        <v>0.1112687533996382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1372210671375997</v>
+        <v>0.1343003468167112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09256599646862509</v>
+        <v>0.09112953788678761</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.15709106307303</v>
+        <v>0.1574882248373639</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1611966372775808</v>
+        <v>0.1638696149068815</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2050638800361747</v>
+        <v>0.1992321936266184</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08742593582486806</v>
+        <v>0.08870816922853679</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1993734124384468</v>
+        <v>0.2004462207233851</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1852984542928674</v>
+        <v>0.1851876745439739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1910932944589264</v>
+        <v>0.1874677443335066</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08230435064906087</v>
+        <v>0.07915267294276983</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1689893954992424</v>
+        <v>0.1677706901033333</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1636029449818352</v>
+        <v>0.1631348892599894</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1841874967705078</v>
+        <v>0.1845882120956222</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07356206851029462</v>
+        <v>0.07542334776123076</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1154735615269428</v>
+        <v>0.1184057565975477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08609063056580529</v>
+        <v>0.09408072239273642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1544913935935469</v>
+        <v>0.156402245278902</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06185571778205096</v>
+        <v>0.06512208488180739</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.168857857888368</v>
+        <v>0.1702582221718024</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1051787013108078</v>
+        <v>0.1044068864822901</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2091084914567913</v>
+        <v>0.2141004182283657</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08047635367151332</v>
+        <v>0.07874041011420124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1613688444251721</v>
+        <v>0.1566296189561326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1109612101792895</v>
+        <v>0.1073848939450411</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.193717843611707</v>
+        <v>0.1954098290193096</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1627670917081304</v>
+        <v>0.1714811787159926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2226370067122905</v>
+        <v>0.215318325555611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1824156372563673</v>
+        <v>0.1832292491321483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2401248191996718</v>
+        <v>0.24149178470132</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1513560425914328</v>
+        <v>0.1506400648459066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2765777468932176</v>
+        <v>0.2810701968941232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.200882649960173</v>
+        <v>0.2031164991848755</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2848169755301823</v>
+        <v>0.2868389483280669</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1460786597121589</v>
+        <v>0.1434633587725841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2334069526443</v>
+        <v>0.2298085875768286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1779372620320035</v>
+        <v>0.1757311307349416</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2540016553960797</v>
+        <v>0.2530049927885593</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03492363067251048</v>
+        <v>0.03595582271789617</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09910598539419301</v>
+        <v>0.1011117471228155</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07262300356063581</v>
+        <v>0.06856488720271081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.167775061164265</v>
+        <v>0.1655278907911452</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09864407613674128</v>
+        <v>0.09652968807058095</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1144697126536715</v>
+        <v>0.1166028028759348</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07451789229733478</v>
+        <v>0.07341262996115619</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1453772028011586</v>
+        <v>0.1484079705412601</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07265875221621954</v>
+        <v>0.07406235773562792</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1180892191556024</v>
+        <v>0.1186234213220651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08126019704764187</v>
+        <v>0.08099708504070598</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1678032485241693</v>
+        <v>0.1660663223467725</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08879054556084366</v>
+        <v>0.0908982344041276</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1853276925720829</v>
+        <v>0.1913513954145457</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1469083199954351</v>
+        <v>0.1448156622241402</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2420905809065256</v>
+        <v>0.2436104971507171</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1773825610056317</v>
+        <v>0.181994915792558</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2048927699703162</v>
+        <v>0.2042765410038672</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1486520812781342</v>
+        <v>0.1507704108131724</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2104014908623227</v>
+        <v>0.2115677888037313</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1236486642910178</v>
+        <v>0.1254942082638504</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.180806214055963</v>
+        <v>0.1816732614342265</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1344200939012838</v>
+        <v>0.1355043961656083</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2170551186708216</v>
+        <v>0.2169291105447055</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0479259857769052</v>
+        <v>0.04699262808662456</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08845761794113467</v>
+        <v>0.08864735363711236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08615594442994932</v>
+        <v>0.08699074574271404</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1379054006961261</v>
+        <v>0.1386500983589571</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08777534519171674</v>
+        <v>0.08744223224394636</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08887822267448768</v>
+        <v>0.09001755918845565</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0823372252839981</v>
+        <v>0.0804538312540293</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1616305940183287</v>
+        <v>0.1616186439541893</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07242406181630191</v>
+        <v>0.0718297598956965</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09628339050256331</v>
+        <v>0.09683180759726534</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09157823364438518</v>
+        <v>0.09115788978173299</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1558512071011607</v>
+        <v>0.1571036397740798</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08675146587001546</v>
+        <v>0.08556814349067839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1407843076789178</v>
+        <v>0.1397634175094025</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1365783463140471</v>
+        <v>0.1369577603741221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.195638320859145</v>
+        <v>0.1945966368188485</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.136948780786067</v>
+        <v>0.1354535674161889</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1415569150466723</v>
+        <v>0.1430560187426057</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1306361493355607</v>
+        <v>0.1308415404754493</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2073088131005576</v>
+        <v>0.2105883548937759</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1052211050561759</v>
+        <v>0.1050725288364434</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1318636032185177</v>
+        <v>0.1346311799937682</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1259032704536671</v>
+        <v>0.1282511060116429</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1956278325839111</v>
+        <v>0.1957168715777395</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08606252351015839</v>
+        <v>0.08721264613623653</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06581940552503185</v>
+        <v>0.06742581427095053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08193555364514366</v>
+        <v>0.08228099333338453</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08969265930359868</v>
+        <v>0.09042382757509837</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09559786605798846</v>
+        <v>0.09572314974662148</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09442900380094832</v>
+        <v>0.09585440899691473</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1152048020237826</v>
+        <v>0.117133284294975</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1158038383535235</v>
+        <v>0.1138275361187429</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09777088717320093</v>
+        <v>0.09558969886883963</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08598789818591589</v>
+        <v>0.08537114439302984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1048480639827799</v>
+        <v>0.1053148343522995</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1068210786226258</v>
+        <v>0.1078025210281357</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1320187616789179</v>
+        <v>0.1326252231183495</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1071149194584099</v>
+        <v>0.1100152204192308</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1265462739363021</v>
+        <v>0.1248913172312798</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1297261965899871</v>
+        <v>0.1312064501066697</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1439159040073686</v>
+        <v>0.1414563445438351</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1392872392376451</v>
+        <v>0.1412823522775808</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1690631599864049</v>
+        <v>0.1710210115100497</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1535459787491565</v>
+        <v>0.1534396318518176</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.12994598605366</v>
+        <v>0.1304012066802588</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1173648676878654</v>
+        <v>0.1166108453604353</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.139364941426757</v>
+        <v>0.1393903692867959</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1345664146522006</v>
+        <v>0.136108181000593</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1145427989490394</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1030366913449996</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8220</v>
+        <v>8496</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19641</v>
+        <v>19566</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26174</v>
+        <v>27805</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29933</v>
+        <v>30658</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17718</v>
+        <v>17083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24609</v>
+        <v>24996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28676</v>
+        <v>28631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37232</v>
+        <v>37860</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28585</v>
+        <v>28835</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>49504</v>
+        <v>48608</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>61959</v>
+        <v>58534</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>71912</v>
+        <v>73684</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22007</v>
+        <v>22294</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41230</v>
+        <v>42596</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51055</v>
+        <v>51666</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50687</v>
+        <v>50371</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37351</v>
+        <v>36009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49932</v>
+        <v>49711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52948</v>
+        <v>53532</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55404</v>
+        <v>55534</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52691</v>
+        <v>52700</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>83895</v>
+        <v>81518</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>95456</v>
+        <v>93694</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>99739</v>
+        <v>100777</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27581</v>
+        <v>27789</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51442</v>
+        <v>50701</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44693</v>
+        <v>44858</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48930</v>
+        <v>47737</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40544</v>
+        <v>39344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>65179</v>
+        <v>66259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59371</v>
+        <v>58798</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60314</v>
+        <v>59442</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>72795</v>
+        <v>71672</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>125287</v>
+        <v>125897</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>112084</v>
+        <v>110672</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>115345</v>
+        <v>115223</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51648</v>
+        <v>50735</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>84201</v>
+        <v>86682</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73758</v>
+        <v>72922</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>79708</v>
+        <v>80102</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67124</v>
+        <v>66323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>100676</v>
+        <v>101770</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91088</v>
+        <v>90724</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86123</v>
+        <v>84107</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>107213</v>
+        <v>106461</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>175323</v>
+        <v>174684</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>154913</v>
+        <v>154692</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>155301</v>
+        <v>154432</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17605</v>
+        <v>17369</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24634</v>
+        <v>24215</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29755</v>
+        <v>31234</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35549</v>
+        <v>35979</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19246</v>
+        <v>18444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32684</v>
+        <v>32604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38618</v>
+        <v>37123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49385</v>
+        <v>48775</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40769</v>
+        <v>40049</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>63019</v>
+        <v>63356</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>74916</v>
+        <v>75263</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>92998</v>
+        <v>92806</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36510</v>
+        <v>35964</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47203</v>
+        <v>47592</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53594</v>
+        <v>54878</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57465</v>
+        <v>58959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39947</v>
+        <v>38545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59597</v>
+        <v>57953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67107</v>
+        <v>66881</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71129</v>
+        <v>70047</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69491</v>
+        <v>66748</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>96646</v>
+        <v>98887</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108388</v>
+        <v>111621</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>122508</v>
+        <v>121382</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15173</v>
+        <v>15222</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31993</v>
+        <v>32865</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35201</v>
+        <v>35168</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45266</v>
+        <v>43192</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15048</v>
+        <v>14677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>49052</v>
+        <v>48781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41564</v>
+        <v>43193</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>57907</v>
+        <v>56150</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33830</v>
+        <v>34589</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>86937</v>
+        <v>89793</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>85824</v>
+        <v>84258</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>109105</v>
+        <v>106783</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33201</v>
+        <v>32686</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58749</v>
+        <v>58898</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59637</v>
+        <v>60626</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>76519</v>
+        <v>74342</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32475</v>
+        <v>32951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>77546</v>
+        <v>77964</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>71763</v>
+        <v>71720</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>80634</v>
+        <v>79104</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>60093</v>
+        <v>57792</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>128928</v>
+        <v>127998</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>123888</v>
+        <v>123533</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>146449</v>
+        <v>146767</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14956</v>
+        <v>15334</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24552</v>
+        <v>25175</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18184</v>
+        <v>19872</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31773</v>
+        <v>32166</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12845</v>
+        <v>13524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37080</v>
+        <v>37387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22991</v>
+        <v>22822</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>47249</v>
+        <v>48377</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33074</v>
+        <v>32360</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>69745</v>
+        <v>67697</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>47692</v>
+        <v>46155</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>83612</v>
+        <v>84343</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33092</v>
+        <v>34863</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47337</v>
+        <v>45781</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38530</v>
+        <v>38702</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49385</v>
+        <v>49666</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31432</v>
+        <v>31283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>60734</v>
+        <v>61720</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43910</v>
+        <v>44399</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>64356</v>
+        <v>64813</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60035</v>
+        <v>58960</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>100881</v>
+        <v>99325</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>76479</v>
+        <v>75531</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>109632</v>
+        <v>109202</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9458</v>
+        <v>9737</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27153</v>
+        <v>27703</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19109</v>
+        <v>18041</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>45418</v>
+        <v>44810</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>27437</v>
+        <v>26849</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31834</v>
+        <v>32427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>20352</v>
+        <v>20050</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>38249</v>
+        <v>39046</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>39886</v>
+        <v>40657</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>65194</v>
+        <v>65489</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>43575</v>
+        <v>43434</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>89574</v>
+        <v>88647</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24045</v>
+        <v>24616</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50776</v>
+        <v>52427</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>38655</v>
+        <v>38104</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65536</v>
+        <v>65947</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>49338</v>
+        <v>50621</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>56980</v>
+        <v>56808</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>40599</v>
+        <v>41178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55356</v>
+        <v>55663</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>67878</v>
+        <v>68891</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>99819</v>
+        <v>100298</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>72081</v>
+        <v>72663</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>115865</v>
+        <v>115798</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29476</v>
+        <v>28902</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>58629</v>
+        <v>58754</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>56566</v>
+        <v>57114</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>98392</v>
+        <v>98923</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>56020</v>
+        <v>55807</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>61668</v>
+        <v>62459</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>56919</v>
+        <v>55617</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>124131</v>
+        <v>124122</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>90765</v>
+        <v>90020</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>130622</v>
+        <v>131366</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>123434</v>
+        <v>122867</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>230888</v>
+        <v>232743</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53354</v>
+        <v>52627</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>93310</v>
+        <v>92634</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>89672</v>
+        <v>89921</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>139582</v>
+        <v>138839</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>87403</v>
+        <v>86449</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98220</v>
+        <v>99260</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>90308</v>
+        <v>90450</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>159212</v>
+        <v>161731</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>131868</v>
+        <v>131682</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>178892</v>
+        <v>182646</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>169699</v>
+        <v>172864</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>289816</v>
+        <v>289947</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>64013</v>
+        <v>64868</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>51280</v>
+        <v>52531</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>63794</v>
+        <v>64063</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>71581</v>
+        <v>72165</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>74902</v>
+        <v>75000</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>77675</v>
+        <v>78848</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>95178</v>
+        <v>96772</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>96117</v>
+        <v>94476</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>149326</v>
+        <v>145995</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>137725</v>
+        <v>136737</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>168255</v>
+        <v>169004</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>173912</v>
+        <v>175510</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>98195</v>
+        <v>98646</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>83453</v>
+        <v>85713</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>98527</v>
+        <v>97238</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>103531</v>
+        <v>104712</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>112760</v>
+        <v>110833</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>114575</v>
+        <v>116216</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>139674</v>
+        <v>141292</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>127443</v>
+        <v>127354</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>198467</v>
+        <v>199163</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>187980</v>
+        <v>186773</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>223646</v>
+        <v>223687</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>219083</v>
+        <v>221593</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
     </row>
     <row r="40">
